--- a/data/fractionation/Quant/220825 Batch 122 IJKL Quant Water Yr.xlsx
+++ b/data/fractionation/Quant/220825 Batch 122 IJKL Quant Water Yr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SIP Pipeline\Mike\220817 Batch 122 Water yr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Banfield\WaterYear\SIP\data\fractionation\Quant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF2F4A1-24A0-4791-BDF3-474D848FF957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274D9ADD-68B1-430E-B1B7-F4764705DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7807" yWindow="2267" windowWidth="16540" windowHeight="6586" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart 1" sheetId="10" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -461,8 +461,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +506,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -509,10 +521,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -523,24 +536,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -6344,9 +6356,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6384,9 +6396,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6419,26 +6431,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6471,26 +6466,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6666,17 +6644,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:CT104"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>119</v>
       </c>
@@ -6969,7 +6947,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -7262,12 +7240,12 @@
         <v>4405</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
-      <c r="N7" s="10" t="s">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
+      <c r="N7" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -7299,7 +7277,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -7324,24 +7302,24 @@
       <c r="K9" t="s">
         <v>82</v>
       </c>
-      <c r="L9" s="9" t="str">
+      <c r="L9" s="8" t="str">
         <f>A10</f>
         <v>A2</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="8">
         <f>B10</f>
         <v>4176</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <f>(M9-4131)/2450.7</f>
         <v>1.8362100624311421E-2</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="8">
         <f>N9*40</f>
         <v>0.73448402497245691</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -7367,24 +7345,24 @@
       <c r="K10" t="s">
         <v>85</v>
       </c>
-      <c r="L10" s="9" t="str">
+      <c r="L10" s="8" t="str">
         <f>A22</f>
         <v>B2</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="8">
         <f>B22</f>
         <v>4214</v>
       </c>
-      <c r="N10" s="9">
+      <c r="N10" s="8">
         <f t="shared" ref="N10:N73" si="1">(M10-4131)/2450.7</f>
         <v>3.3867874484841069E-2</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="8">
         <f t="shared" ref="O10:O73" si="2">N10*40</f>
         <v>1.3547149793936428</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -7410,24 +7388,24 @@
       <c r="K11" t="s">
         <v>88</v>
       </c>
-      <c r="L11" s="9" t="str">
+      <c r="L11" s="8" t="str">
         <f>A34</f>
         <v>C2</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="8">
         <f>B34</f>
         <v>4138</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="8">
         <f t="shared" si="1"/>
         <v>2.8563267637817767E-3</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="8">
         <f t="shared" si="2"/>
         <v>0.11425307055127107</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -7453,24 +7431,24 @@
       <c r="K12" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="9" t="str">
+      <c r="L12" s="8" t="str">
         <f>A46</f>
         <v>D2</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="8">
         <f>B46</f>
         <v>4099</v>
       </c>
-      <c r="N12" s="9">
+      <c r="N12" s="8">
         <f t="shared" si="1"/>
         <v>-1.3057493777288123E-2</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="8">
         <f t="shared" si="2"/>
         <v>-0.52229975109152493</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -7496,24 +7474,24 @@
       <c r="K13" t="s">
         <v>94</v>
       </c>
-      <c r="L13" s="9" t="str">
+      <c r="L13" s="8" t="str">
         <f>A58</f>
         <v>E2</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="8">
         <f>B58</f>
         <v>4203</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f t="shared" si="1"/>
         <v>2.9379360998898277E-2</v>
       </c>
-      <c r="O13" s="9">
+      <c r="O13" s="8">
         <f t="shared" si="2"/>
         <v>1.175174439955931</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7539,24 +7517,24 @@
       <c r="K14" t="s">
         <v>97</v>
       </c>
-      <c r="L14" s="9" t="str">
+      <c r="L14" s="8" t="str">
         <f>A70</f>
         <v>F2</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="8">
         <f>B70</f>
         <v>4649</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <f t="shared" si="1"/>
         <v>0.21136818051985148</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="8">
         <f t="shared" si="2"/>
         <v>8.4547272207940587</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -7578,24 +7556,24 @@
       <c r="K15" t="s">
         <v>100</v>
       </c>
-      <c r="L15" s="9" t="str">
+      <c r="L15" s="8" t="str">
         <f>A82</f>
         <v>G2</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="8">
         <f>B82</f>
         <v>5315</v>
       </c>
-      <c r="N15" s="9">
+      <c r="N15" s="8">
         <f t="shared" si="1"/>
         <v>0.48312726975966053</v>
       </c>
-      <c r="O15" s="9">
+      <c r="O15" s="8">
         <f t="shared" si="2"/>
         <v>19.325090790386422</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -7605,24 +7583,24 @@
       <c r="K16" t="s">
         <v>103</v>
       </c>
-      <c r="L16" s="9" t="str">
+      <c r="L16" s="8" t="str">
         <f>A94</f>
         <v>H2</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="8">
         <f>B94</f>
         <v>6755</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <f t="shared" si="1"/>
         <v>1.0707144897376262</v>
       </c>
-      <c r="O16" s="9">
+      <c r="O16" s="8">
         <f t="shared" si="2"/>
         <v>42.828579589505047</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -7632,24 +7610,24 @@
       <c r="K17" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="9" t="str">
+      <c r="L17" s="8" t="str">
         <f>A95</f>
         <v>H3</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="8">
         <f>B95</f>
         <v>9146</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <f t="shared" si="1"/>
         <v>2.046354102909373</v>
       </c>
-      <c r="O17" s="9">
+      <c r="O17" s="8">
         <f t="shared" si="2"/>
         <v>81.854164116374918</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -7659,24 +7637,24 @@
       <c r="K18" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="9" t="str">
+      <c r="L18" s="8" t="str">
         <f>A83</f>
         <v>G3</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="8">
         <f>B83</f>
         <v>16981</v>
       </c>
-      <c r="N18" s="9">
+      <c r="N18" s="8">
         <f t="shared" si="1"/>
         <v>5.2433998449422621</v>
       </c>
-      <c r="O18" s="9">
+      <c r="O18" s="8">
         <f t="shared" si="2"/>
         <v>209.73599379769047</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -7686,24 +7664,24 @@
       <c r="K19" t="s">
         <v>98</v>
       </c>
-      <c r="L19" s="9" t="str">
+      <c r="L19" s="8" t="str">
         <f>A71</f>
         <v>F3</v>
       </c>
-      <c r="M19" s="9">
+      <c r="M19" s="8">
         <f>B71</f>
         <v>21265</v>
       </c>
-      <c r="N19" s="9">
+      <c r="N19" s="8">
         <f t="shared" si="1"/>
         <v>6.9914718243767089</v>
       </c>
-      <c r="O19" s="9">
+      <c r="O19" s="8">
         <f t="shared" si="2"/>
         <v>279.65887297506833</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -7713,24 +7691,24 @@
       <c r="K20" t="s">
         <v>95</v>
       </c>
-      <c r="L20" s="9" t="str">
+      <c r="L20" s="8" t="str">
         <f>A59</f>
         <v>E3</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20" s="8">
         <f>B59</f>
         <v>24427</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <f t="shared" si="1"/>
         <v>8.2817154282449916</v>
       </c>
-      <c r="O20" s="9">
+      <c r="O20" s="8">
         <f t="shared" si="2"/>
         <v>331.26861712979968</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -7740,24 +7718,24 @@
       <c r="K21" t="s">
         <v>92</v>
       </c>
-      <c r="L21" s="9" t="str">
+      <c r="L21" s="8" t="str">
         <f>A47</f>
         <v>D3</v>
       </c>
-      <c r="M21" s="9">
+      <c r="M21" s="8">
         <f>B47</f>
         <v>21376</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f t="shared" si="1"/>
         <v>7.0367650059166778</v>
       </c>
-      <c r="O21" s="9">
+      <c r="O21" s="8">
         <f t="shared" si="2"/>
         <v>281.47060023666711</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -7767,24 +7745,24 @@
       <c r="K22" t="s">
         <v>89</v>
       </c>
-      <c r="L22" s="9" t="str">
+      <c r="L22" s="8" t="str">
         <f>A35</f>
         <v>C3</v>
       </c>
-      <c r="M22" s="9">
+      <c r="M22" s="8">
         <f>B35</f>
         <v>11386</v>
       </c>
-      <c r="N22" s="9">
+      <c r="N22" s="8">
         <f t="shared" si="1"/>
         <v>2.9603786673195414</v>
       </c>
-      <c r="O22" s="9">
+      <c r="O22" s="8">
         <f t="shared" si="2"/>
         <v>118.41514669278166</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -7794,24 +7772,24 @@
       <c r="K23" t="s">
         <v>86</v>
       </c>
-      <c r="L23" s="9" t="str">
+      <c r="L23" s="8" t="str">
         <f>A23</f>
         <v>B3</v>
       </c>
-      <c r="M23" s="9">
+      <c r="M23" s="8">
         <f>B23</f>
         <v>7316</v>
       </c>
-      <c r="N23" s="9">
+      <c r="N23" s="8">
         <f t="shared" si="1"/>
         <v>1.2996286775207084</v>
       </c>
-      <c r="O23" s="9">
+      <c r="O23" s="8">
         <f t="shared" si="2"/>
         <v>51.985147100828335</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -7821,24 +7799,24 @@
       <c r="K24" t="s">
         <v>83</v>
       </c>
-      <c r="L24" s="9" t="str">
+      <c r="L24" s="8" t="str">
         <f>A11</f>
         <v>A3</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <f>B11</f>
         <v>5803</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <f t="shared" si="1"/>
         <v>0.6822540498633044</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <f t="shared" si="2"/>
         <v>27.290161994532177</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -7848,24 +7826,24 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="L25" s="9" t="str">
+      <c r="L25" s="8" t="str">
         <f>A12</f>
         <v>A4</v>
       </c>
-      <c r="M25" s="9">
+      <c r="M25" s="8">
         <f>B12</f>
         <v>4984</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <f t="shared" si="1"/>
         <v>0.34806381850083651</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <f t="shared" si="2"/>
         <v>13.92255274003346</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -7875,24 +7853,24 @@
       <c r="K26" t="s">
         <v>87</v>
       </c>
-      <c r="L26" s="9" t="str">
+      <c r="L26" s="8" t="str">
         <f>A24</f>
         <v>B4</v>
       </c>
-      <c r="M26" s="9">
+      <c r="M26" s="8">
         <f>B24</f>
         <v>4621</v>
       </c>
-      <c r="N26" s="9">
+      <c r="N26" s="8">
         <f t="shared" si="1"/>
         <v>0.19994287346472439</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <f t="shared" si="2"/>
         <v>7.9977149385889756</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -7902,24 +7880,24 @@
       <c r="K27" t="s">
         <v>90</v>
       </c>
-      <c r="L27" s="9" t="str">
+      <c r="L27" s="8" t="str">
         <f>A36</f>
         <v>C4</v>
       </c>
-      <c r="M27" s="9">
+      <c r="M27" s="8">
         <f>B36</f>
         <v>4507</v>
       </c>
-      <c r="N27" s="9">
+      <c r="N27" s="8">
         <f t="shared" si="1"/>
         <v>0.15342555188313545</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="8">
         <f t="shared" si="2"/>
         <v>6.1370220753254179</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -7929,24 +7907,24 @@
       <c r="K28" t="s">
         <v>93</v>
       </c>
-      <c r="L28" s="9" t="str">
+      <c r="L28" s="8" t="str">
         <f>A48</f>
         <v>D4</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <f>B48</f>
         <v>4551</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <f t="shared" si="1"/>
         <v>0.17137960582690662</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="8">
         <f t="shared" si="2"/>
         <v>6.8551842330762645</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -7956,24 +7934,24 @@
       <c r="K29" t="s">
         <v>96</v>
       </c>
-      <c r="L29" s="9" t="str">
+      <c r="L29" s="8" t="str">
         <f>A60</f>
         <v>E4</v>
       </c>
-      <c r="M29" s="9">
+      <c r="M29" s="8">
         <f>B60</f>
         <v>4466</v>
       </c>
-      <c r="N29" s="9">
+      <c r="N29" s="8">
         <f t="shared" si="1"/>
         <v>0.13669563798098502</v>
       </c>
-      <c r="O29" s="9">
+      <c r="O29" s="8">
         <f t="shared" si="2"/>
         <v>5.4678255192394012</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -7983,24 +7961,24 @@
       <c r="K30" t="s">
         <v>99</v>
       </c>
-      <c r="L30" s="9" t="str">
+      <c r="L30" s="8" t="str">
         <f>A72</f>
         <v>F4</v>
       </c>
-      <c r="M30" s="9">
+      <c r="M30" s="8">
         <f>B72</f>
         <v>4440</v>
       </c>
-      <c r="N30" s="9">
+      <c r="N30" s="8">
         <f t="shared" si="1"/>
         <v>0.12608642428693845</v>
       </c>
-      <c r="O30" s="9">
+      <c r="O30" s="8">
         <f t="shared" si="2"/>
         <v>5.0434569714775375</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -8010,24 +7988,24 @@
       <c r="K31" t="s">
         <v>102</v>
       </c>
-      <c r="L31" s="9" t="str">
+      <c r="L31" s="8" t="str">
         <f>A84</f>
         <v>G4</v>
       </c>
-      <c r="M31" s="9">
+      <c r="M31" s="8">
         <f>B84</f>
         <v>4160</v>
       </c>
-      <c r="N31" s="9">
+      <c r="N31" s="8">
         <f t="shared" si="1"/>
         <v>1.1833353735667362E-2</v>
       </c>
-      <c r="O31" s="9">
+      <c r="O31" s="8">
         <f t="shared" si="2"/>
         <v>0.47333414942669449</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -8045,16 +8023,16 @@
         <f>B96</f>
         <v>4153</v>
       </c>
-      <c r="N32" s="9">
+      <c r="N32" s="8">
         <f t="shared" si="1"/>
         <v>8.977026971885585E-3</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="8">
         <f t="shared" si="2"/>
         <v>0.3590810788754234</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -8072,16 +8050,16 @@
         <f>B97</f>
         <v>4243</v>
       </c>
-      <c r="N33" s="9">
+      <c r="N33" s="8">
         <f t="shared" si="1"/>
         <v>4.5701228220508427E-2</v>
       </c>
-      <c r="O33" s="9">
+      <c r="O33" s="8">
         <f t="shared" si="2"/>
         <v>1.8280491288203371</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -8099,16 +8077,16 @@
         <f>B85</f>
         <v>5023</v>
       </c>
-      <c r="N34" s="9">
+      <c r="N34" s="8">
         <f t="shared" si="1"/>
         <v>0.36397763904190644</v>
       </c>
-      <c r="O34" s="9">
+      <c r="O34" s="8">
         <f t="shared" si="2"/>
         <v>14.559105561676258</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -8126,16 +8104,16 @@
         <f>B73</f>
         <v>4998</v>
       </c>
-      <c r="N35" s="9">
+      <c r="N35" s="8">
         <f t="shared" si="1"/>
         <v>0.35377647202840007</v>
       </c>
-      <c r="O35" s="9">
+      <c r="O35" s="8">
         <f t="shared" si="2"/>
         <v>14.151058881136002</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -8153,16 +8131,16 @@
         <f>B61</f>
         <v>7924</v>
       </c>
-      <c r="N36" s="9">
+      <c r="N36" s="8">
         <f t="shared" si="1"/>
         <v>1.5477210592891828</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="8">
         <f t="shared" si="2"/>
         <v>61.90884237156731</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -8180,16 +8158,16 @@
         <f>B49</f>
         <v>9935</v>
       </c>
-      <c r="N37" s="9">
+      <c r="N37" s="8">
         <f t="shared" si="1"/>
         <v>2.3683029338556332</v>
       </c>
-      <c r="O37" s="9">
+      <c r="O37" s="8">
         <f t="shared" si="2"/>
         <v>94.732117354225323</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -8207,16 +8185,16 @@
         <f>B37</f>
         <v>9844</v>
       </c>
-      <c r="N38" s="9">
+      <c r="N38" s="8">
         <f t="shared" si="1"/>
         <v>2.33117068592647</v>
       </c>
-      <c r="O38" s="9">
+      <c r="O38" s="8">
         <f t="shared" si="2"/>
         <v>93.246827437058798</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -8234,16 +8212,16 @@
         <f>B25</f>
         <v>11279</v>
       </c>
-      <c r="N39" s="9">
+      <c r="N39" s="8">
         <f t="shared" si="1"/>
         <v>2.9167176725017345</v>
       </c>
-      <c r="O39" s="9">
+      <c r="O39" s="8">
         <f t="shared" si="2"/>
         <v>116.66870690006938</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -8261,16 +8239,16 @@
         <f>B13</f>
         <v>12854</v>
       </c>
-      <c r="N40" s="9">
+      <c r="N40" s="8">
         <f t="shared" si="1"/>
         <v>3.5593911943526342</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="8">
         <f t="shared" si="2"/>
         <v>142.37564777410537</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8288,16 +8266,16 @@
         <f>B14</f>
         <v>18119</v>
       </c>
-      <c r="N41" s="9">
+      <c r="N41" s="8">
         <f t="shared" si="1"/>
         <v>5.7077569673970707</v>
       </c>
-      <c r="O41" s="9">
+      <c r="O41" s="8">
         <f t="shared" si="2"/>
         <v>228.31027869588283</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -8315,16 +8293,16 @@
         <f>B26</f>
         <v>19510</v>
       </c>
-      <c r="N42" s="9">
+      <c r="N42" s="8">
         <f t="shared" si="1"/>
         <v>6.275349900028564</v>
       </c>
-      <c r="O42" s="9">
+      <c r="O42" s="8">
         <f t="shared" si="2"/>
         <v>251.01399600114257</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -8342,16 +8320,16 @@
         <f>B38</f>
         <v>14938</v>
       </c>
-      <c r="N43" s="9">
+      <c r="N43" s="8">
         <f t="shared" si="1"/>
         <v>4.4097604765985228</v>
       </c>
-      <c r="O43" s="9">
+      <c r="O43" s="8">
         <f t="shared" si="2"/>
         <v>176.3904190639409</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -8369,16 +8347,16 @@
         <f>B50</f>
         <v>9951</v>
       </c>
-      <c r="N44" s="9">
+      <c r="N44" s="8">
         <f t="shared" si="1"/>
         <v>2.3748316807442773</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="8">
         <f t="shared" si="2"/>
         <v>94.993267229771092</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -8396,16 +8374,16 @@
         <f>B62</f>
         <v>6370</v>
       </c>
-      <c r="N45" s="9">
+      <c r="N45" s="8">
         <f t="shared" si="1"/>
         <v>0.91361651772962837</v>
       </c>
-      <c r="O45" s="9">
+      <c r="O45" s="8">
         <f t="shared" si="2"/>
         <v>36.544660709185138</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -8423,16 +8401,16 @@
         <f>B74</f>
         <v>5452</v>
       </c>
-      <c r="N46" s="9">
+      <c r="N46" s="8">
         <f t="shared" si="1"/>
         <v>0.53902966499367533</v>
       </c>
-      <c r="O46" s="9">
+      <c r="O46" s="8">
         <f t="shared" si="2"/>
         <v>21.561186599747014</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -8450,16 +8428,16 @@
         <f>B86</f>
         <v>4805</v>
       </c>
-      <c r="N47" s="9">
+      <c r="N47" s="8">
         <f t="shared" si="1"/>
         <v>0.27502346268413108</v>
       </c>
-      <c r="O47" s="9">
+      <c r="O47" s="8">
         <f t="shared" si="2"/>
         <v>11.000938507365243</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -8477,16 +8455,16 @@
         <f>B98</f>
         <v>4394</v>
       </c>
-      <c r="N48" s="9">
+      <c r="N48" s="8">
         <f t="shared" si="1"/>
         <v>0.10731627698208676</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="8">
         <f t="shared" si="2"/>
         <v>4.2926510792834707</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -8504,16 +8482,16 @@
         <f>B99</f>
         <v>4478</v>
       </c>
-      <c r="N49" s="9">
+      <c r="N49" s="8">
         <f t="shared" si="1"/>
         <v>0.14159219814746807</v>
       </c>
-      <c r="O49" s="9">
+      <c r="O49" s="8">
         <f t="shared" si="2"/>
         <v>5.6636879258987225</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -8531,16 +8509,16 @@
         <f>B87</f>
         <v>4600</v>
       </c>
-      <c r="N50" s="9">
+      <c r="N50" s="8">
         <f t="shared" si="1"/>
         <v>0.19137389317337905</v>
       </c>
-      <c r="O50" s="9">
+      <c r="O50" s="8">
         <f t="shared" si="2"/>
         <v>7.654955726935162</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -8558,16 +8536,16 @@
         <f>B75</f>
         <v>4412</v>
       </c>
-      <c r="N51" s="9">
+      <c r="N51" s="8">
         <f t="shared" si="1"/>
         <v>0.11466111723181133</v>
       </c>
-      <c r="O51" s="9">
+      <c r="O51" s="8">
         <f t="shared" si="2"/>
         <v>4.5864446892724526</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -8585,16 +8563,16 @@
         <f>B63</f>
         <v>4461</v>
       </c>
-      <c r="N52" s="9">
+      <c r="N52" s="8">
         <f t="shared" si="1"/>
         <v>0.13465540457828376</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="8">
         <f t="shared" si="2"/>
         <v>5.3862161831313502</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -8612,16 +8590,16 @@
         <f>B51</f>
         <v>4208</v>
       </c>
-      <c r="N53" s="9">
+      <c r="N53" s="8">
         <f t="shared" si="1"/>
         <v>3.1419594401599547E-2</v>
       </c>
-      <c r="O53" s="9">
+      <c r="O53" s="8">
         <f t="shared" si="2"/>
         <v>1.2567837760639819</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -8631,24 +8609,24 @@
       <c r="K54" t="s">
         <v>27</v>
       </c>
-      <c r="L54" s="9" t="str">
+      <c r="L54" s="8" t="str">
         <f>A39</f>
         <v>C7</v>
       </c>
-      <c r="M54" s="9">
+      <c r="M54" s="8">
         <f>B39</f>
         <v>4110</v>
       </c>
-      <c r="N54" s="9">
+      <c r="N54" s="8">
         <f t="shared" si="1"/>
         <v>-8.5689802913453302E-3</v>
       </c>
-      <c r="O54" s="9">
+      <c r="O54" s="8">
         <f t="shared" si="2"/>
         <v>-0.34275921165381318</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -8658,24 +8636,24 @@
       <c r="K55" t="s">
         <v>26</v>
       </c>
-      <c r="L55" s="9" t="str">
+      <c r="L55" s="8" t="str">
         <f>A27</f>
         <v>B7</v>
       </c>
-      <c r="M55" s="9">
+      <c r="M55" s="8">
         <f>B27</f>
         <v>4205</v>
       </c>
-      <c r="N55" s="9">
+      <c r="N55" s="8">
         <f t="shared" si="1"/>
         <v>3.0195454359978783E-2</v>
       </c>
-      <c r="O55" s="9">
+      <c r="O55" s="8">
         <f t="shared" si="2"/>
         <v>1.2078181743991514</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -8685,24 +8663,24 @@
       <c r="K56" t="s">
         <v>25</v>
       </c>
-      <c r="L56" s="9" t="str">
+      <c r="L56" s="8" t="str">
         <f>A15</f>
         <v>A7</v>
       </c>
-      <c r="M56" s="9">
+      <c r="M56" s="8">
         <f>B15</f>
         <v>4343</v>
       </c>
-      <c r="N56" s="9">
+      <c r="N56" s="8">
         <f t="shared" si="1"/>
         <v>8.6505896274533811E-2</v>
       </c>
-      <c r="O56" s="9">
+      <c r="O56" s="8">
         <f t="shared" si="2"/>
         <v>3.4602358509813524</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -8712,24 +8690,24 @@
       <c r="K57" t="s">
         <v>34</v>
       </c>
-      <c r="L57" s="9" t="str">
+      <c r="L57" s="8" t="str">
         <f>A16</f>
         <v>A8</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="8">
         <f>B16</f>
         <v>4585</v>
       </c>
-      <c r="N57" s="9">
+      <c r="N57" s="8">
         <f t="shared" si="1"/>
         <v>0.18525319296527523</v>
       </c>
-      <c r="O57" s="9">
+      <c r="O57" s="8">
         <f t="shared" si="2"/>
         <v>7.4101277186110091</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -8739,24 +8717,24 @@
       <c r="K58" t="s">
         <v>35</v>
       </c>
-      <c r="L58" s="9" t="str">
+      <c r="L58" s="8" t="str">
         <f>A28</f>
         <v>B8</v>
       </c>
-      <c r="M58" s="9">
+      <c r="M58" s="8">
         <f>B28</f>
         <v>6305</v>
       </c>
-      <c r="N58" s="9">
+      <c r="N58" s="8">
         <f t="shared" si="1"/>
         <v>0.88709348349451189</v>
       </c>
-      <c r="O58" s="9">
+      <c r="O58" s="8">
         <f t="shared" si="2"/>
         <v>35.483739339780477</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -8766,24 +8744,24 @@
       <c r="K59" t="s">
         <v>36</v>
       </c>
-      <c r="L59" s="9" t="str">
+      <c r="L59" s="8" t="str">
         <f>A40</f>
         <v>C8</v>
       </c>
-      <c r="M59" s="9">
+      <c r="M59" s="8">
         <f>B40</f>
         <v>8126</v>
       </c>
-      <c r="N59" s="9">
+      <c r="N59" s="8">
         <f t="shared" si="1"/>
         <v>1.6301464887583141</v>
       </c>
-      <c r="O59" s="9">
+      <c r="O59" s="8">
         <f t="shared" si="2"/>
         <v>65.205859550332562</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -8793,24 +8771,24 @@
       <c r="K60" t="s">
         <v>37</v>
       </c>
-      <c r="L60" s="9" t="str">
+      <c r="L60" s="8" t="str">
         <f>A52</f>
         <v>D8</v>
       </c>
-      <c r="M60" s="9">
+      <c r="M60" s="8">
         <f>B52</f>
         <v>8821</v>
       </c>
-      <c r="N60" s="9">
+      <c r="N60" s="8">
         <f t="shared" si="1"/>
         <v>1.9137389317337905</v>
       </c>
-      <c r="O60" s="9">
+      <c r="O60" s="8">
         <f t="shared" si="2"/>
         <v>76.549557269351624</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -8820,24 +8798,24 @@
       <c r="K61" t="s">
         <v>38</v>
       </c>
-      <c r="L61" s="9" t="str">
+      <c r="L61" s="8" t="str">
         <f>A64</f>
         <v>E8</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="8">
         <f>B64</f>
         <v>10951</v>
       </c>
-      <c r="N61" s="9">
+      <c r="N61" s="8">
         <f t="shared" si="1"/>
         <v>2.7828783612845314</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="8">
         <f t="shared" si="2"/>
         <v>111.31513445138125</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -8847,24 +8825,24 @@
       <c r="K62" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="9" t="str">
+      <c r="L62" s="8" t="str">
         <f>A76</f>
         <v>F8</v>
       </c>
-      <c r="M62" s="9">
+      <c r="M62" s="8">
         <f>B76</f>
         <v>15547</v>
       </c>
-      <c r="N62" s="9">
+      <c r="N62" s="8">
         <f t="shared" si="1"/>
         <v>4.6582609050475376</v>
       </c>
-      <c r="O62" s="9">
+      <c r="O62" s="8">
         <f t="shared" si="2"/>
         <v>186.33043620190151</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -8874,24 +8852,24 @@
       <c r="K63" t="s">
         <v>39</v>
       </c>
-      <c r="L63" s="9" t="str">
+      <c r="L63" s="8" t="str">
         <f>A88</f>
         <v>G8</v>
       </c>
-      <c r="M63" s="9">
+      <c r="M63" s="8">
         <f>B88</f>
         <v>24318</v>
       </c>
-      <c r="N63" s="9">
+      <c r="N63" s="8">
         <f t="shared" si="1"/>
         <v>8.2372383400661047</v>
       </c>
-      <c r="O63" s="9">
+      <c r="O63" s="8">
         <f t="shared" si="2"/>
         <v>329.4895336026442</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -8901,24 +8879,24 @@
       <c r="K64" t="s">
         <v>40</v>
       </c>
-      <c r="L64" s="9" t="str">
+      <c r="L64" s="8" t="str">
         <f>A100</f>
         <v>H8</v>
       </c>
-      <c r="M64" s="9">
+      <c r="M64" s="8">
         <f>B100</f>
         <v>17210</v>
       </c>
-      <c r="N64" s="9">
+      <c r="N64" s="8">
         <f t="shared" si="1"/>
         <v>5.3368425347859798</v>
       </c>
-      <c r="O64" s="9">
+      <c r="O64" s="8">
         <f t="shared" si="2"/>
         <v>213.47370139143919</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -8928,24 +8906,24 @@
       <c r="K65" t="s">
         <v>48</v>
       </c>
-      <c r="L65" s="9" t="str">
+      <c r="L65" s="8" t="str">
         <f>A101</f>
         <v>H9</v>
       </c>
-      <c r="M65" s="9">
+      <c r="M65" s="8">
         <f>B101</f>
         <v>15940</v>
       </c>
-      <c r="N65" s="9">
+      <c r="N65" s="8">
         <f t="shared" si="1"/>
         <v>4.8186232504998578</v>
       </c>
-      <c r="O65" s="9">
+      <c r="O65" s="8">
         <f t="shared" si="2"/>
         <v>192.74493001999431</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -8955,24 +8933,24 @@
       <c r="K66" t="s">
         <v>47</v>
       </c>
-      <c r="L66" s="9" t="str">
+      <c r="L66" s="8" t="str">
         <f>A89</f>
         <v>G9</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="8">
         <f>B89</f>
         <v>10452</v>
       </c>
-      <c r="N66" s="9">
+      <c r="N66" s="8">
         <f t="shared" si="1"/>
         <v>2.5792630676949444</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="8">
         <f t="shared" si="2"/>
         <v>103.17052270779777</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -8982,24 +8960,24 @@
       <c r="K67" t="s">
         <v>46</v>
       </c>
-      <c r="L67" s="9" t="str">
+      <c r="L67" s="8" t="str">
         <f>A77</f>
         <v>F9</v>
       </c>
-      <c r="M67" s="9">
+      <c r="M67" s="8">
         <f>B77</f>
         <v>6224</v>
       </c>
-      <c r="N67" s="9">
+      <c r="N67" s="8">
         <f t="shared" si="1"/>
         <v>0.85404170237075128</v>
       </c>
-      <c r="O67" s="9">
+      <c r="O67" s="8">
         <f t="shared" si="2"/>
         <v>34.161668094830048</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -9009,24 +8987,24 @@
       <c r="K68" t="s">
         <v>45</v>
       </c>
-      <c r="L68" s="9" t="str">
+      <c r="L68" s="8" t="str">
         <f>A65</f>
         <v>E9</v>
       </c>
-      <c r="M68" s="9">
+      <c r="M68" s="8">
         <f>B65</f>
         <v>5902</v>
       </c>
-      <c r="N68" s="9">
+      <c r="N68" s="8">
         <f t="shared" si="1"/>
         <v>0.7226506712367895</v>
       </c>
-      <c r="O68" s="9">
+      <c r="O68" s="8">
         <f t="shared" si="2"/>
         <v>28.90602684947158</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -9036,24 +9014,24 @@
       <c r="K69" t="s">
         <v>44</v>
       </c>
-      <c r="L69" s="9" t="str">
+      <c r="L69" s="8" t="str">
         <f>A53</f>
         <v>D9</v>
       </c>
-      <c r="M69" s="9">
+      <c r="M69" s="8">
         <f>B53</f>
         <v>4908</v>
       </c>
-      <c r="N69" s="9">
+      <c r="N69" s="8">
         <f t="shared" si="1"/>
         <v>0.31705227077977721</v>
       </c>
-      <c r="O69" s="9">
+      <c r="O69" s="8">
         <f t="shared" si="2"/>
         <v>12.682090831191088</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -9063,24 +9041,24 @@
       <c r="K70" t="s">
         <v>43</v>
       </c>
-      <c r="L70" s="9" t="str">
+      <c r="L70" s="8" t="str">
         <f>A41</f>
         <v>C9</v>
       </c>
-      <c r="M70" s="9">
+      <c r="M70" s="8">
         <f>B41</f>
         <v>4501</v>
       </c>
-      <c r="N70" s="9">
+      <c r="N70" s="8">
         <f t="shared" si="1"/>
         <v>0.15097727179989393</v>
       </c>
-      <c r="O70" s="9">
+      <c r="O70" s="8">
         <f t="shared" si="2"/>
         <v>6.0390908719957572</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -9090,24 +9068,24 @@
       <c r="K71" t="s">
         <v>42</v>
       </c>
-      <c r="L71" s="9" t="str">
+      <c r="L71" s="8" t="str">
         <f>A29</f>
         <v>B9</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M71" s="8">
         <f>B29</f>
         <v>4557</v>
       </c>
-      <c r="N71" s="9">
+      <c r="N71" s="8">
         <f t="shared" si="1"/>
         <v>0.17382788591014814</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O71" s="8">
         <f t="shared" si="2"/>
         <v>6.9531154364059251</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -9117,24 +9095,24 @@
       <c r="K72" t="s">
         <v>41</v>
       </c>
-      <c r="L72" s="9" t="str">
+      <c r="L72" s="8" t="str">
         <f>A17</f>
         <v>A9</v>
       </c>
-      <c r="M72" s="9">
+      <c r="M72" s="8">
         <f>B17</f>
         <v>4479</v>
       </c>
-      <c r="N72" s="9">
+      <c r="N72" s="8">
         <f t="shared" si="1"/>
         <v>0.14200024482800833</v>
       </c>
-      <c r="O72" s="9">
+      <c r="O72" s="8">
         <f t="shared" si="2"/>
         <v>5.6800097931203331</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -9144,24 +9122,24 @@
       <c r="K73" t="s">
         <v>49</v>
       </c>
-      <c r="L73" s="9" t="str">
+      <c r="L73" s="8" t="str">
         <f>A18</f>
         <v>A10</v>
       </c>
-      <c r="M73" s="9">
+      <c r="M73" s="8">
         <f>B18</f>
         <v>4388</v>
       </c>
-      <c r="N73" s="9">
+      <c r="N73" s="8">
         <f t="shared" si="1"/>
         <v>0.10486799689884524</v>
       </c>
-      <c r="O73" s="9">
+      <c r="O73" s="8">
         <f t="shared" si="2"/>
         <v>4.19471987595381</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -9171,24 +9149,24 @@
       <c r="K74" t="s">
         <v>50</v>
       </c>
-      <c r="L74" s="9" t="str">
+      <c r="L74" s="8" t="str">
         <f>A30</f>
         <v>B10</v>
       </c>
-      <c r="M74" s="9">
+      <c r="M74" s="8">
         <f>B30</f>
         <v>4411</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="8">
         <f t="shared" ref="N74:N96" si="4">(M74-4131)/2450.7</f>
         <v>0.11425307055127107</v>
       </c>
-      <c r="O74" s="9">
+      <c r="O74" s="8">
         <f t="shared" ref="O74:O96" si="5">N74*40</f>
         <v>4.570122822050843</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -9198,24 +9176,24 @@
       <c r="K75" t="s">
         <v>51</v>
       </c>
-      <c r="L75" s="9" t="str">
+      <c r="L75" s="8" t="str">
         <f>A42</f>
         <v>C10</v>
       </c>
-      <c r="M75" s="9">
+      <c r="M75" s="8">
         <f>B42</f>
         <v>4165</v>
       </c>
-      <c r="N75" s="9">
+      <c r="N75" s="8">
         <f t="shared" si="4"/>
         <v>1.3873587138368631E-2</v>
       </c>
-      <c r="O75" s="9">
+      <c r="O75" s="8">
         <f t="shared" si="5"/>
         <v>0.55494348553474526</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -9233,16 +9211,16 @@
         <f>B54</f>
         <v>4131</v>
       </c>
-      <c r="N76" s="9">
+      <c r="N76" s="8">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="8">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -9260,16 +9238,16 @@
         <f>B66</f>
         <v>4177</v>
       </c>
-      <c r="N77" s="9">
+      <c r="N77" s="8">
         <f t="shared" si="4"/>
         <v>1.8770147304851676E-2</v>
       </c>
-      <c r="O77" s="9">
+      <c r="O77" s="8">
         <f t="shared" si="5"/>
         <v>0.75080589219406701</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -9287,16 +9265,16 @@
         <f>B78</f>
         <v>4270</v>
       </c>
-      <c r="N78" s="9">
+      <c r="N78" s="8">
         <f t="shared" si="4"/>
         <v>5.6718488595095283E-2</v>
       </c>
-      <c r="O78" s="9">
+      <c r="O78" s="8">
         <f t="shared" si="5"/>
         <v>2.2687395438038114</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -9314,16 +9292,16 @@
         <f>B90</f>
         <v>4566</v>
       </c>
-      <c r="N79" s="9">
+      <c r="N79" s="8">
         <f t="shared" si="4"/>
         <v>0.17750030603501041</v>
       </c>
-      <c r="O79" s="9">
+      <c r="O79" s="8">
         <f t="shared" si="5"/>
         <v>7.1000122414004165</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -9341,16 +9319,16 @@
         <f>B102</f>
         <v>5500</v>
       </c>
-      <c r="N80" s="9">
+      <c r="N80" s="8">
         <f t="shared" si="4"/>
         <v>0.5586159056596075</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="8">
         <f t="shared" si="5"/>
         <v>22.344636226384299</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -9368,16 +9346,16 @@
         <f>B103</f>
         <v>6987</v>
       </c>
-      <c r="N81" s="9">
+      <c r="N81" s="8">
         <f t="shared" si="4"/>
         <v>1.165381319622965</v>
       </c>
-      <c r="O81" s="9">
+      <c r="O81" s="8">
         <f t="shared" si="5"/>
         <v>46.615252784918596</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -9395,16 +9373,16 @@
         <f>B91</f>
         <v>9736</v>
       </c>
-      <c r="N82" s="9">
+      <c r="N82" s="8">
         <f t="shared" si="4"/>
         <v>2.2871016444281227</v>
       </c>
-      <c r="O82" s="9">
+      <c r="O82" s="8">
         <f t="shared" si="5"/>
         <v>91.484065777124911</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -9422,16 +9400,16 @@
         <f>B79</f>
         <v>12545</v>
       </c>
-      <c r="N83" s="9">
+      <c r="N83" s="8">
         <f t="shared" si="4"/>
         <v>3.4333047700656958</v>
       </c>
-      <c r="O83" s="9">
+      <c r="O83" s="8">
         <f t="shared" si="5"/>
         <v>137.33219080262782</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -9449,16 +9427,16 @@
         <f>B67</f>
         <v>16750</v>
       </c>
-      <c r="N84" s="9">
+      <c r="N84" s="8">
         <f t="shared" si="4"/>
         <v>5.1491410617374633</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84" s="8">
         <f t="shared" si="5"/>
         <v>205.96564246949853</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -9476,16 +9454,16 @@
         <f>B55</f>
         <v>22103</v>
       </c>
-      <c r="N85" s="9">
+      <c r="N85" s="8">
         <f t="shared" si="4"/>
         <v>7.3334149426694415</v>
       </c>
-      <c r="O85" s="9">
+      <c r="O85" s="8">
         <f t="shared" si="5"/>
         <v>293.33659770677764</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -9503,16 +9481,16 @@
         <f>B43</f>
         <v>23165</v>
       </c>
-      <c r="N86" s="9">
+      <c r="N86" s="8">
         <f t="shared" si="4"/>
         <v>7.7667605174031911</v>
       </c>
-      <c r="O86" s="9">
+      <c r="O86" s="8">
         <f t="shared" si="5"/>
         <v>310.67042069612762</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -9530,16 +9508,16 @@
         <f>B31</f>
         <v>17571</v>
       </c>
-      <c r="N87" s="9">
+      <c r="N87" s="8">
         <f t="shared" si="4"/>
         <v>5.4841473864610117</v>
       </c>
-      <c r="O87" s="9">
+      <c r="O87" s="8">
         <f t="shared" si="5"/>
         <v>219.36589545844046</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -9557,16 +9535,16 @@
         <f>B19</f>
         <v>9573</v>
       </c>
-      <c r="N88" s="9">
+      <c r="N88" s="8">
         <f t="shared" si="4"/>
         <v>2.2205900355000612</v>
       </c>
-      <c r="O88" s="9">
+      <c r="O88" s="8">
         <f t="shared" si="5"/>
         <v>88.823601420002447</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -9584,16 +9562,16 @@
         <f>B20</f>
         <v>6579</v>
       </c>
-      <c r="N89" s="9">
+      <c r="N89" s="8">
         <f t="shared" si="4"/>
         <v>0.99889827396254138</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O89" s="8">
         <f t="shared" si="5"/>
         <v>39.955930958501654</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -9611,16 +9589,16 @@
         <f>B32</f>
         <v>5388</v>
       </c>
-      <c r="N90" s="9">
+      <c r="N90" s="8">
         <f t="shared" si="4"/>
         <v>0.51291467743909902</v>
       </c>
-      <c r="O90" s="9">
+      <c r="O90" s="8">
         <f t="shared" si="5"/>
         <v>20.51658709756396</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -9638,16 +9616,16 @@
         <f>B44</f>
         <v>4823</v>
       </c>
-      <c r="N91" s="9">
+      <c r="N91" s="8">
         <f t="shared" si="4"/>
         <v>0.28236830293385567</v>
       </c>
-      <c r="O91" s="9">
+      <c r="O91" s="8">
         <f t="shared" si="5"/>
         <v>11.294732117354227</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -9665,16 +9643,16 @@
         <f>B56</f>
         <v>4635</v>
       </c>
-      <c r="N92" s="9">
+      <c r="N92" s="8">
         <f t="shared" si="4"/>
         <v>0.20565552699228792</v>
       </c>
-      <c r="O92" s="9">
+      <c r="O92" s="8">
         <f t="shared" si="5"/>
         <v>8.2262210796915163</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -9692,16 +9670,16 @@
         <f>B68</f>
         <v>4608</v>
       </c>
-      <c r="N93" s="9">
+      <c r="N93" s="8">
         <f t="shared" si="4"/>
         <v>0.19463826661770109</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O93" s="8">
         <f t="shared" si="5"/>
         <v>7.7855306647080438</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -9719,16 +9697,16 @@
         <f>B80</f>
         <v>4678</v>
       </c>
-      <c r="N94" s="9">
+      <c r="N94" s="8">
         <f t="shared" si="4"/>
         <v>0.22320153425551884</v>
       </c>
-      <c r="O94" s="9">
+      <c r="O94" s="8">
         <f t="shared" si="5"/>
         <v>8.9280613702207532</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -9746,16 +9724,16 @@
         <f>B92</f>
         <v>4503</v>
       </c>
-      <c r="N95" s="9">
+      <c r="N95" s="8">
         <f t="shared" si="4"/>
         <v>0.15179336516097441</v>
       </c>
-      <c r="O95" s="9">
+      <c r="O95" s="8">
         <f t="shared" si="5"/>
         <v>6.0717346064389766</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -9773,16 +9751,16 @@
         <f>B104</f>
         <v>4405</v>
       </c>
-      <c r="N96" s="9">
+      <c r="N96" s="8">
         <f t="shared" si="4"/>
         <v>0.11180479046802955</v>
       </c>
-      <c r="O96" s="9">
+      <c r="O96" s="8">
         <f t="shared" si="5"/>
         <v>4.4721916187211814</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -9790,7 +9768,7 @@
         <v>4243</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -9798,7 +9776,7 @@
         <v>4394</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -9806,7 +9784,7 @@
         <v>4478</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -9814,7 +9792,7 @@
         <v>17210</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -9822,7 +9800,7 @@
         <v>15940</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -9830,7 +9808,7 @@
         <v>5500</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -9838,7 +9816,7 @@
         <v>6987</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -9859,16 +9837,16 @@
   <dimension ref="A1:CT104"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N96"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>119</v>
       </c>
@@ -10161,7 +10139,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -10454,12 +10432,12 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="7" spans="1:98" ht="17.350000000000001" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:98" ht="17.600000000000001" x14ac:dyDescent="0.4">
       <c r="N7" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -10491,7 +10469,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -10530,7 +10508,7 @@
         <v>4.8553510014161444E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -10569,7 +10547,7 @@
         <v>1.6831883471575964</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -10608,7 +10586,7 @@
         <v>-4.8553510014161444E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -10647,7 +10625,7 @@
         <v>-0.51790410681772203</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -10686,7 +10664,7 @@
         <v>-1.7479263605098119</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -10725,7 +10703,7 @@
         <v>3.4958527210196237</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -10764,7 +10742,7 @@
         <v>17.932429698563624</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -10791,7 +10769,7 @@
         <v>39.053206554723857</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -10818,7 +10796,7 @@
         <v>77.960752579405224</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -10845,7 +10823,7 @@
         <v>196.75500708072022</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -10872,7 +10850,7 @@
         <v>278.87517701800527</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -10899,7 +10877,7 @@
         <v>339.09771393890355</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -10926,7 +10904,7 @@
         <v>286.69229213028524</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -10953,7 +10931,7 @@
         <v>115.96196641715558</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -10980,7 +10958,7 @@
         <v>52.03317823184301</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -11007,7 +10985,7 @@
         <v>25.312563220716164</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -11034,7 +11012,7 @@
         <v>10.617034189763302</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -11061,7 +11039,7 @@
         <v>5.761683188347158</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -11088,7 +11066,7 @@
         <v>4.0299413311753991</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -11115,7 +11093,7 @@
         <v>4.175601861217884</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -11142,7 +11120,7 @@
         <v>3.4796682176815699</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -11169,7 +11147,7 @@
         <v>2.168723447299211</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -11196,7 +11174,7 @@
         <v>-1.4566053004248434</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -11223,7 +11201,7 @@
         <v>-2.1525389439611571</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -11250,7 +11228,7 @@
         <v>-0.84159417357879818</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -11277,7 +11255,7 @@
         <v>12.656281610358082</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -11304,7 +11282,7 @@
         <v>10.115314586283633</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -11331,7 +11309,7 @@
         <v>62.375075864859397</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -11358,7 +11336,7 @@
         <v>92.623912603681973</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -11385,7 +11363,7 @@
         <v>94.436576977544007</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -11412,7 +11390,7 @@
         <v>113.72850495650414</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -11439,7 +11417,7 @@
         <v>150.59680356059073</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -11466,7 +11444,7 @@
         <v>232.61986647784744</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -11493,7 +11471,7 @@
         <v>247.34776451547643</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -11520,7 +11498,7 @@
         <v>168.86910782925349</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -11547,7 +11525,7 @@
         <v>92.882864657090835</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -11574,7 +11552,7 @@
         <v>32.741250252882864</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -11601,7 +11579,7 @@
         <v>18.531256322071616</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -11628,7 +11606,7 @@
         <v>8.3188347157596603</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -11655,7 +11633,7 @@
         <v>2.79991907748331</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -11682,7 +11660,7 @@
         <v>2.0392474205947804</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -11709,7 +11687,7 @@
         <v>3.7062512644143233</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -11736,7 +11714,7 @@
         <v>4.1917863645559379</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -11763,7 +11741,7 @@
         <v>6.5547238519117945</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -11790,7 +11768,7 @@
         <v>-1.294760267044305</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -11817,7 +11795,7 @@
         <v>1.8612178838761886</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -11844,7 +11822,7 @@
         <v>0.5988266235079911</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -11871,7 +11849,7 @@
         <v>1.2623912603681975</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -11898,7 +11876,7 @@
         <v>5.6807606716568877</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -11925,7 +11903,7 @@
         <v>33.242969856362535</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -11952,7 +11930,7 @@
         <v>62.099939308112482</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -11979,7 +11957,7 @@
         <v>75.71110661541573</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -12006,7 +11984,7 @@
         <v>110.36212826218895</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -12033,7 +12011,7 @@
         <v>174.42039247420595</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -12060,7 +12038,7 @@
         <v>303.62128262188952</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -12087,7 +12065,7 @@
         <v>207.64717782723042</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -12114,7 +12092,7 @@
         <v>179.85838559579204</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -12141,7 +12119,7 @@
         <v>98.563625328747719</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -12168,7 +12146,7 @@
         <v>30.750556342302247</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -12195,7 +12173,7 @@
         <v>27.319441634634835</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -12222,7 +12200,7 @@
         <v>9.241351406028727</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -12249,7 +12227,7 @@
         <v>2.4924135140602872</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -12276,7 +12254,7 @@
         <v>3.6576977544001621</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -12303,7 +12281,7 @@
         <v>2.1849079506372648</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -12330,7 +12308,7 @@
         <v>1.4242362937487354</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -12357,7 +12335,7 @@
         <v>0.66356463686020639</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -12384,7 +12362,7 @@
         <v>-3.2207161642727087</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -12411,7 +12389,7 @@
         <v>-2.6057050374266639</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -12438,7 +12416,7 @@
         <v>-2.2010924539753187</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -12465,7 +12443,7 @@
         <v>-1.1814687436779283</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -12492,7 +12470,7 @@
         <v>1.8612178838761886</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -12519,7 +12497,7 @@
         <v>17.705846651830871</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -12546,7 +12524,7 @@
         <v>40.736394901881454</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -12573,7 +12551,7 @@
         <v>83.916649807809023</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -12600,7 +12578,7 @@
         <v>130.22051385798099</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -12627,7 +12605,7 @@
         <v>199.65203317823185</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -12654,7 +12632,7 @@
         <v>293.9591341290714</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -12681,7 +12659,7 @@
         <v>308.57374064333396</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -12708,7 +12686,7 @@
         <v>208.5696945174995</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -12735,7 +12713,7 @@
         <v>86.635646368602067</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -12762,7 +12740,7 @@
         <v>35.719198867084771</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -12789,7 +12767,7 @@
         <v>19.146267448917662</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -12816,7 +12794,7 @@
         <v>8.5292332591543598</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -12843,7 +12821,7 @@
         <v>4.7258749747117133</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -12870,7 +12848,7 @@
         <v>3.738620271090431</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -12897,7 +12875,7 @@
         <v>4.9524580214444667</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -12924,7 +12902,7 @@
         <v>2.1039854339469959</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -12951,7 +12929,7 @@
         <v>0.25895205340886102</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -12959,7 +12937,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -12967,7 +12945,7 @@
         <v>4443</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -12975,7 +12953,7 @@
         <v>4396</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -12983,7 +12961,7 @@
         <v>17100</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -12991,7 +12969,7 @@
         <v>15383</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -12999,7 +12977,7 @@
         <v>5364</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -13007,7 +12985,7 @@
         <v>6787</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -13026,17 +13004,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:CT104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N96"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="11" max="11" width="24.41015625" customWidth="1"/>
-    <col min="12" max="12" width="15.87890625" customWidth="1"/>
+    <col min="11" max="11" width="24.3828125" customWidth="1"/>
+    <col min="12" max="12" width="15.84375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>119</v>
       </c>
@@ -13329,7 +13307,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>1</v>
       </c>
@@ -13622,12 +13600,12 @@
         <v>4244</v>
       </c>
     </row>
-    <row r="7" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.3">
       <c r="N7" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>119</v>
       </c>
@@ -13659,7 +13637,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>82</v>
       </c>
@@ -13698,7 +13676,7 @@
         <v>-1.8103448275862069</v>
       </c>
     </row>
-    <row r="10" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>83</v>
       </c>
@@ -13737,7 +13715,7 @@
         <v>-0.67241379310344818</v>
       </c>
     </row>
-    <row r="11" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -13776,7 +13754,7 @@
         <v>-2.1724137931034484</v>
       </c>
     </row>
-    <row r="12" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -13815,7 +13793,7 @@
         <v>-1.7758620689655171</v>
       </c>
     </row>
-    <row r="13" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -13854,7 +13832,7 @@
         <v>-3.7241379310344831</v>
       </c>
     </row>
-    <row r="14" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -13893,7 +13871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -13932,7 +13910,7 @@
         <v>15.706896551724139</v>
       </c>
     </row>
-    <row r="16" spans="1:98" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -13959,7 +13937,7 @@
         <v>38.637931034482762</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -13986,7 +13964,7 @@
         <v>79.172413793103445</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>57</v>
       </c>
@@ -14013,7 +13991,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -14040,7 +14018,7 @@
         <v>281.82758620689651</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>73</v>
       </c>
@@ -14067,7 +14045,7 @@
         <v>343.77586206896552</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>85</v>
       </c>
@@ -14094,7 +14072,7 @@
         <v>291.24137931034483</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -14121,7 +14099,7 @@
         <v>119.12068965517241</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -14148,7 +14126,7 @@
         <v>51.258620689655174</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -14175,7 +14153,7 @@
         <v>23.931034482758623</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -14202,7 +14180,7 @@
         <v>9.1379310344827598</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -14229,7 +14207,7 @@
         <v>3.9827586206896552</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>35</v>
       </c>
@@ -14256,7 +14234,7 @@
         <v>2.5344827586206895</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -14283,7 +14261,7 @@
         <v>2.2241379310344827</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>50</v>
       </c>
@@ -14310,7 +14288,7 @@
         <v>1.603448275862069</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -14337,7 +14315,7 @@
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -14364,7 +14342,7 @@
         <v>-3.2413793103448274</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>74</v>
       </c>
@@ -14391,7 +14369,7 @@
         <v>-3.7586206896551722</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>88</v>
       </c>
@@ -14418,7 +14396,7 @@
         <v>-2.8103448275862069</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>89</v>
       </c>
@@ -14445,7 +14423,7 @@
         <v>11.327586206896552</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>90</v>
       </c>
@@ -14472,7 +14450,7 @@
         <v>8.4482758620689662</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>11</v>
       </c>
@@ -14499,7 +14477,7 @@
         <v>61.5</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>19</v>
       </c>
@@ -14526,7 +14504,7 @@
         <v>92.482758620689651</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>27</v>
       </c>
@@ -14553,7 +14531,7 @@
         <v>93.982758620689651</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -14580,7 +14558,7 @@
         <v>114.67241379310344</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -14607,7 +14585,7 @@
         <v>155.5</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -14634,7 +14612,7 @@
         <v>235.65517241379311</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>59</v>
       </c>
@@ -14661,7 +14639,7 @@
         <v>251.29310344827587</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>67</v>
       </c>
@@ -14688,7 +14666,7 @@
         <v>169.31034482758619</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>75</v>
       </c>
@@ -14715,7 +14693,7 @@
         <v>94.568965517241395</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -14742,7 +14720,7 @@
         <v>31.879310344827587</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -14769,7 +14747,7 @@
         <v>17.53448275862069</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -14796,7 +14774,7 @@
         <v>6.6206896551724137</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -14823,7 +14801,7 @@
         <v>1.3620689655172413</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
@@ -14850,7 +14828,7 @@
         <v>0.44827586206896552</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>28</v>
       </c>
@@ -14877,7 +14855,7 @@
         <v>1.6551724137931034</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>37</v>
       </c>
@@ -14904,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -14931,7 +14909,7 @@
         <v>0.48275862068965514</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -14958,7 +14936,7 @@
         <v>-3.5517241379310343</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>60</v>
       </c>
@@ -14985,7 +14963,7 @@
         <v>-4.0517241379310338</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -15012,7 +14990,7 @@
         <v>-1.4310344827586208</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>76</v>
       </c>
@@ -15039,7 +15017,7 @@
         <v>-0.84482758620689657</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -15066,7 +15044,7 @@
         <v>3.7241379310344831</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>95</v>
       </c>
@@ -15093,7 +15071,7 @@
         <v>31.96551724137931</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -15120,7 +15098,7 @@
         <v>61.224137931034484</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -15147,7 +15125,7 @@
         <v>73.068965517241381</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -15174,7 +15152,7 @@
         <v>111.87931034482759</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>29</v>
       </c>
@@ -15201,7 +15179,7 @@
         <v>172.51724137931035</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
@@ -15228,7 +15206,7 @@
         <v>311.0344827586207</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>45</v>
       </c>
@@ -15255,7 +15233,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>53</v>
       </c>
@@ -15282,7 +15260,7 @@
         <v>181.05172413793102</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>61</v>
       </c>
@@ -15309,7 +15287,7 @@
         <v>99.431034482758619</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -15336,7 +15314,7 @@
         <v>29.051724137931036</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>77</v>
       </c>
@@ -15363,7 +15341,7 @@
         <v>25.896551724137929</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>97</v>
       </c>
@@ -15390,7 +15368,7 @@
         <v>7.3103448275862073</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -15417,7 +15395,7 @@
         <v>0.81034482758620685</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>99</v>
       </c>
@@ -15444,7 +15422,7 @@
         <v>2.2241379310344827</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>14</v>
       </c>
@@ -15471,7 +15449,7 @@
         <v>0.55172413793103448</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>22</v>
       </c>
@@ -15498,7 +15476,7 @@
         <v>-0.44827586206896552</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>32</v>
       </c>
@@ -15525,7 +15503,7 @@
         <v>-1.396551724137931</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>30</v>
       </c>
@@ -15552,7 +15530,7 @@
         <v>-5.6724137931034484</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>46</v>
       </c>
@@ -15579,7 +15557,7 @@
         <v>-4.2586206896551726</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -15606,7 +15584,7 @@
         <v>-3.103448275862069</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -15633,7 +15611,7 @@
         <v>-3.0344827586206895</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>70</v>
       </c>
@@ -15660,7 +15638,7 @@
         <v>-6.8965517241379309E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -15687,7 +15665,7 @@
         <v>16.603448275862071</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>100</v>
       </c>
@@ -15714,7 +15692,7 @@
         <v>41.344827586206904</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>101</v>
       </c>
@@ -15741,7 +15719,7 @@
         <v>83.827586206896555</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>102</v>
       </c>
@@ -15768,7 +15746,7 @@
         <v>130.44827586206895</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -15795,7 +15773,7 @@
         <v>202.06896551724139</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -15822,7 +15800,7 @@
         <v>291.81034482758616</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>31</v>
       </c>
@@ -15849,7 +15827,7 @@
         <v>314.58620689655174</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>39</v>
       </c>
@@ -15876,7 +15854,7 @@
         <v>213.72413793103448</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>47</v>
       </c>
@@ -15903,7 +15881,7 @@
         <v>86.224137931034477</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>55</v>
       </c>
@@ -15930,7 +15908,7 @@
         <v>34.448275862068968</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>63</v>
       </c>
@@ -15957,7 +15935,7 @@
         <v>17.620689655172413</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -15984,7 +15962,7 @@
         <v>7.137931034482758</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>79</v>
       </c>
@@ -16011,7 +15989,7 @@
         <v>3.2758620689655169</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>103</v>
       </c>
@@ -16038,7 +16016,7 @@
         <v>2.0344827586206895</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>104</v>
       </c>
@@ -16065,7 +16043,7 @@
         <v>3.1896551724137936</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>105</v>
       </c>
@@ -16092,7 +16070,7 @@
         <v>3.4482758620689655E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -16119,7 +16097,7 @@
         <v>-1.4310344827586208</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -16127,7 +16105,7 @@
         <v>4164</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>33</v>
       </c>
@@ -16135,7 +16113,7 @@
         <v>4406</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
@@ -16143,7 +16121,7 @@
         <v>4353</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>48</v>
       </c>
@@ -16151,7 +16129,7 @@
         <v>16565</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>56</v>
       </c>
@@ -16159,7 +16137,7 @@
         <v>14828</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>64</v>
       </c>
@@ -16167,7 +16145,7 @@
         <v>5290</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>72</v>
       </c>
@@ -16175,7 +16153,7 @@
         <v>6725</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>80</v>
       </c>
@@ -16194,23 +16172,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O89"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.7" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.41015625" customWidth="1"/>
-    <col min="3" max="3" width="13.1171875" style="2" customWidth="1"/>
-    <col min="4" max="6" width="10.1171875" customWidth="1"/>
-    <col min="7" max="8" width="14.703125" customWidth="1"/>
-    <col min="9" max="9" width="15.29296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.3828125" customWidth="1"/>
+    <col min="3" max="3" width="13.07421875" style="2" customWidth="1"/>
+    <col min="4" max="6" width="10.07421875" customWidth="1"/>
+    <col min="7" max="8" width="14.69140625" customWidth="1"/>
+    <col min="9" max="9" width="15.3046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.69140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.1171875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.07421875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>108</v>
       </c>
@@ -16247,11 +16225,11 @@
       <c r="L1" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M1" s="14"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -16285,14 +16263,14 @@
         <f>G2*40</f>
         <v>-0.34243576419986288</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -16326,11 +16304,11 @@
         <f t="shared" ref="I3:I66" si="2">G3*40</f>
         <v>0.78849651114926356</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="13"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M3" s="3"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -16364,11 +16342,11 @@
         <f t="shared" si="2"/>
         <v>-0.70223807752211276</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="13"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M4" s="3"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -16402,11 +16380,11 @@
         <f t="shared" si="2"/>
         <v>-0.93868864229158799</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="13"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M5" s="3"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -16440,11 +16418,11 @@
         <f t="shared" si="2"/>
         <v>-1.4322966171961213</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="13"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M6" s="12"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -16466,23 +16444,23 @@
         <f>'Plate 3'!N14</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>0.1245881661817807</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="1"/>
-        <v>7.5408854530049058E-2</v>
+      <c r="G7" s="13">
+        <f>AVERAGE(E7:F7)</f>
+        <v>8.1198159012745297E-2</v>
+      </c>
+      <c r="H7" s="13">
+        <f>STDEV(E7:F7)</f>
+        <v>8.7655205375694357E-3</v>
       </c>
       <c r="I7" s="7">
         <f t="shared" si="2"/>
-        <v>4.9835266472712281</v>
-      </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>3.2479263605098119</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -16516,11 +16494,11 @@
         <f t="shared" si="2"/>
         <v>17.654805680224726</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="13"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M8" s="3"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -16554,11 +16532,11 @@
         <f t="shared" si="2"/>
         <v>40.173239059570555</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="13"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M9" s="3"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -16592,11 +16570,11 @@
         <f t="shared" si="2"/>
         <v>79.662443496294529</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="13"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M10" s="3"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -16630,11 +16608,11 @@
         <f t="shared" si="2"/>
         <v>201.16366695947022</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="13"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M11" s="3"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -16668,11 +16646,11 @@
         <f t="shared" si="2"/>
         <v>280.12054539999002</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="13"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M12" s="3"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -16706,11 +16684,11 @@
         <f t="shared" si="2"/>
         <v>338.04739771255618</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="13"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="M13" s="12"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -16744,11 +16722,8 @@
         <f t="shared" si="2"/>
         <v>286.4680905590991</v>
       </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -16782,11 +16757,8 @@
         <f t="shared" si="2"/>
         <v>117.83260092170322</v>
       </c>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -16821,7 +16793,7 @@
         <v>51.758982007442178</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -16856,7 +16828,7 @@
         <v>25.511253232668988</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>17</v>
       </c>
@@ -16891,7 +16863,7 @@
         <v>11.225839321426507</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="7">
         <v>18</v>
       </c>
@@ -16926,7 +16898,7 @@
         <v>5.9140522492085958</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="7">
         <v>19</v>
       </c>
@@ -16961,7 +16933,7 @@
         <v>4.2338153883738361</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A21" s="7">
         <v>20</v>
       </c>
@@ -16983,20 +16955,20 @@
         <f>'Plate 3'!N28</f>
         <v>5.5603448275862069E-2</v>
       </c>
-      <c r="G21" s="7">
-        <f t="shared" si="0"/>
-        <v>0.11045770021107193</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="1"/>
-        <v>5.8126086916392997E-2</v>
+      <c r="G21" s="13">
+        <f>AVERAGE(E21:F21)</f>
+        <v>7.9996747403154586E-2</v>
+      </c>
+      <c r="H21" s="13">
+        <f>STDEV(E21:F21)</f>
+        <v>3.4497334456840868E-2</v>
       </c>
       <c r="I21" s="7">
         <f t="shared" si="2"/>
-        <v>4.4183080084428772</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+        <v>3.1998698961261836</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="7">
         <v>21</v>
       </c>
@@ -17031,7 +17003,7 @@
         <v>3.5169806709276803</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="7">
         <v>22</v>
       </c>
@@ -17067,40 +17039,40 @@
       </c>
       <c r="J23">
         <f>SUM(I2:I23)</f>
-        <v>1472.6003758986851</v>
+        <v>1469.6463374996069</v>
       </c>
       <c r="K23" t="e">
         <f>J23/L2*100</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A24" s="8">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <f>'Plate 1'!N31</f>
         <v>1.1833353735667362E-2</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24">
         <f>'Plate 2'!N31</f>
         <v>-3.6415132510621083E-2</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24">
         <f>'Plate 3'!N31</f>
         <v>-8.1034482758620685E-2</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24">
         <f t="shared" si="0"/>
         <v>-3.5205420511191472E-2</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24">
         <f t="shared" si="1"/>
         <v>4.6445735176909704E-2</v>
       </c>
@@ -17110,33 +17082,33 @@
       </c>
       <c r="L24" s="5"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A25" s="8">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" t="s">
         <v>105</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25">
         <f>'Plate 1'!N32</f>
         <v>8.977026971885585E-3</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25">
         <f>'Plate 2'!N32</f>
         <v>-5.3813473599028931E-2</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25">
         <f>'Plate 3'!N32</f>
         <v>-9.3965517241379304E-2</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25">
         <f t="shared" si="0"/>
         <v>-4.626732128950755E-2</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25">
         <f t="shared" si="1"/>
         <v>5.1884488657824031E-2</v>
       </c>
@@ -17145,33 +17117,33 @@
         <v>-1.8506928515803021</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A26" s="8">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <f>'Plate 1'!N33</f>
         <v>4.5701228220508427E-2</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26">
         <f>'Plate 2'!N33</f>
         <v>-2.1039854339469956E-2</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26">
         <f>'Plate 3'!N33</f>
         <v>-7.0258620689655174E-2</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26">
         <f t="shared" si="0"/>
         <v>-1.5199082269538901E-2</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26">
         <f t="shared" si="1"/>
         <v>5.8200151233451777E-2</v>
       </c>
@@ -17180,33 +17152,33 @@
         <v>-0.60796329078155598</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A27" s="8">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <f>'Plate 1'!N34</f>
         <v>0.36397763904190644</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27">
         <f>'Plate 2'!N34</f>
         <v>0.31640704025895205</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27">
         <f>'Plate 3'!N34</f>
         <v>0.28318965517241379</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27">
         <f t="shared" si="0"/>
         <v>0.32119144482442413</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27">
         <f t="shared" si="1"/>
         <v>4.0605941433599628E-2</v>
       </c>
@@ -17215,33 +17187,33 @@
         <v>12.847657792976966</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A28" s="8">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <f>'Plate 1'!N35</f>
         <v>0.35377647202840007</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28">
         <f>'Plate 2'!N35</f>
         <v>0.25288286465709081</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28">
         <f>'Plate 3'!N35</f>
         <v>0.21120689655172414</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28">
         <f t="shared" si="0"/>
         <v>0.27262207774573838</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28">
         <f t="shared" si="1"/>
         <v>7.3305854902041515E-2</v>
       </c>
@@ -17250,33 +17222,33 @@
         <v>10.904883109829536</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A29" s="8">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <f>'Plate 1'!N36</f>
         <v>1.5477210592891828</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29">
         <f>'Plate 2'!N36</f>
         <v>1.5593768966214849</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29">
         <f>'Plate 3'!N36</f>
         <v>1.5375000000000001</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29">
         <f t="shared" si="0"/>
         <v>1.548199318636889</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29">
         <f t="shared" si="1"/>
         <v>1.0946287062266144E-2</v>
       </c>
@@ -17285,33 +17257,33 @@
         <v>61.927972745475557</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A30" s="8">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <f>'Plate 1'!N37</f>
         <v>2.3683029338556332</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30">
         <f>'Plate 2'!N37</f>
         <v>2.3155978150920493</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30">
         <f>'Plate 3'!N37</f>
         <v>2.3120689655172413</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30">
         <f t="shared" si="0"/>
         <v>2.3319899048216413</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30">
         <f t="shared" si="1"/>
         <v>3.1497464232030821E-2</v>
       </c>
@@ -17320,33 +17292,33 @@
         <v>93.279596192865654</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A31" s="8">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" t="s">
         <v>11</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31">
         <f>'Plate 1'!N38</f>
         <v>2.33117068592647</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31">
         <f>'Plate 2'!N38</f>
         <v>2.3609144244386</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31">
         <f>'Plate 3'!N38</f>
         <v>2.3495689655172414</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31">
         <f t="shared" si="0"/>
         <v>2.3472180252941039</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31">
         <f t="shared" si="1"/>
         <v>1.5010585768685561E-2</v>
       </c>
@@ -17355,33 +17327,33 @@
         <v>93.888721011764162</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A32" s="8">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32">
         <f>'Plate 1'!N39</f>
         <v>2.9167176725017345</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32">
         <f>'Plate 2'!N39</f>
         <v>2.8432126239126037</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32">
         <f>'Plate 3'!N39</f>
         <v>2.8668103448275861</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32">
         <f t="shared" si="0"/>
         <v>2.8755802137473077</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32">
         <f t="shared" si="1"/>
         <v>3.7529068635851488E-2</v>
       </c>
@@ -17390,33 +17362,33 @@
         <v>115.0232085498923</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A33" s="8">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33">
         <f>'Plate 1'!N40</f>
         <v>3.5593911943526342</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33">
         <f>'Plate 2'!N40</f>
         <v>3.7649200890147685</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33">
         <f>'Plate 3'!N40</f>
         <v>3.8875000000000002</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33">
         <f t="shared" si="0"/>
         <v>3.7372704277891344</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33">
         <f t="shared" si="1"/>
         <v>0.16579271669845602</v>
       </c>
@@ -17425,33 +17397,33 @@
         <v>149.49081711156538</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A34" s="8">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D34">
         <f>'Plate 1'!N41</f>
         <v>5.7077569673970707</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34">
         <f>'Plate 2'!N41</f>
         <v>5.8154966619461863</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34">
         <f>'Plate 3'!N41</f>
         <v>5.8913793103448278</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34">
         <f t="shared" si="0"/>
         <v>5.8048776465626943</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34">
         <f t="shared" si="1"/>
         <v>9.2270601077439854E-2</v>
       </c>
@@ -17460,33 +17432,33 @@
         <v>232.19510586250777</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A35" s="8">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" t="s">
         <v>26</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35">
         <f>'Plate 1'!N42</f>
         <v>6.275349900028564</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35">
         <f>'Plate 2'!N42</f>
         <v>6.1836941128869105</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35">
         <f>'Plate 3'!N42</f>
         <v>6.2823275862068968</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35">
         <f t="shared" si="0"/>
         <v>6.2471238663741238</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35">
         <f t="shared" si="1"/>
         <v>5.504245858141972E-2</v>
       </c>
@@ -17495,33 +17467,33 @@
         <v>249.88495465496496</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A36" s="8">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="8">
+      <c r="D36">
         <f>'Plate 1'!N43</f>
         <v>4.4097604765985228</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36">
         <f>'Plate 2'!N43</f>
         <v>4.221727695731337</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36">
         <f>'Plate 3'!N43</f>
         <v>4.2327586206896548</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G36">
         <f t="shared" si="0"/>
         <v>4.2880822643398382</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36">
         <f t="shared" si="1"/>
         <v>0.1055206654177803</v>
       </c>
@@ -17530,33 +17502,33 @@
         <v>171.52329057359353</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A37" s="8">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" t="s">
         <v>28</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37">
         <f>'Plate 1'!N44</f>
         <v>2.3748316807442773</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37">
         <f>'Plate 2'!N44</f>
         <v>2.3220716164272708</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37">
         <f>'Plate 3'!N44</f>
         <v>2.3642241379310347</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G37">
         <f t="shared" si="0"/>
         <v>2.3537091450341943</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37">
         <f t="shared" si="1"/>
         <v>2.7907524135958747E-2</v>
       </c>
@@ -17565,33 +17537,33 @@
         <v>94.148365801367774</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A38" s="8">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" t="s">
         <v>21</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38">
         <f>'Plate 1'!N45</f>
         <v>0.91361651772962837</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38">
         <f>'Plate 2'!N45</f>
         <v>0.81853125632207158</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38">
         <f>'Plate 3'!N45</f>
         <v>0.79698275862068968</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G38">
         <f t="shared" si="0"/>
         <v>0.84304351089079654</v>
       </c>
-      <c r="H38" s="8">
+      <c r="H38">
         <f t="shared" si="1"/>
         <v>6.2060425465847141E-2</v>
       </c>
@@ -17600,33 +17572,33 @@
         <v>33.721740435631858</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A39" s="8">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" t="s">
         <v>32</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39">
         <f>'Plate 1'!N46</f>
         <v>0.53902966499367533</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39">
         <f>'Plate 2'!N46</f>
         <v>0.46328140805179041</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39">
         <f>'Plate 3'!N46</f>
         <v>0.43836206896551722</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G39">
         <f t="shared" si="0"/>
         <v>0.48022438067032769</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H39">
         <f t="shared" si="1"/>
         <v>5.2428899124304394E-2</v>
       </c>
@@ -17635,33 +17607,33 @@
         <v>19.208975226813109</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A40" s="8">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" t="s">
         <v>31</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40">
         <f>'Plate 1'!N47</f>
         <v>0.27502346268413108</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40">
         <f>'Plate 2'!N47</f>
         <v>0.2079708678939915</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40">
         <f>'Plate 3'!N47</f>
         <v>0.16551724137931034</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G40">
         <f t="shared" si="0"/>
         <v>0.21617052398581096</v>
       </c>
-      <c r="H40" s="8">
+      <c r="H40">
         <f t="shared" si="1"/>
         <v>5.5211673549469327E-2</v>
       </c>
@@ -17670,33 +17642,33 @@
         <v>8.6468209594324392</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A41" s="8">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" t="s">
         <v>24</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" t="s">
         <v>33</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41">
         <f>'Plate 1'!N48</f>
         <v>0.10731627698208676</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41">
         <f>'Plate 2'!N48</f>
         <v>6.9997976937082748E-2</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41">
         <f>'Plate 3'!N48</f>
         <v>3.4051724137931033E-2</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41">
         <f t="shared" si="0"/>
         <v>7.045532601903351E-2</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41">
         <f t="shared" si="1"/>
         <v>3.6634417587844824E-2</v>
       </c>
@@ -17705,33 +17677,33 @@
         <v>2.8182130407613402</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A42" s="8">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" t="s">
         <v>40</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42">
         <f>'Plate 1'!N49</f>
         <v>0.14159219814746807</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42">
         <f>'Plate 2'!N49</f>
         <v>5.0981185514869513E-2</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42">
         <f>'Plate 3'!N49</f>
         <v>1.1206896551724138E-2</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G42">
         <f t="shared" si="0"/>
         <v>6.7926760071353912E-2</v>
       </c>
-      <c r="H42" s="8">
+      <c r="H42">
         <f t="shared" si="1"/>
         <v>6.68239933769324E-2</v>
       </c>
@@ -17740,33 +17712,33 @@
         <v>2.7170704028541564</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A43" s="8">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" t="s">
         <v>31</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" t="s">
         <v>39</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43">
         <f>'Plate 1'!N50</f>
         <v>0.19137389317337905</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43">
         <f>'Plate 2'!N50</f>
         <v>9.2656281610358077E-2</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43">
         <f>'Plate 3'!N50</f>
         <v>4.1379310344827586E-2</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G43">
         <f t="shared" si="0"/>
         <v>0.10846982837618824</v>
       </c>
-      <c r="H43" s="8">
+      <c r="H43">
         <f t="shared" si="1"/>
         <v>7.6237424638192774E-2</v>
       </c>
@@ -17775,33 +17747,33 @@
         <v>4.3387931350475295</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A44" s="8">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" t="s">
         <v>32</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" t="s">
         <v>30</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44">
         <f>'Plate 1'!N51</f>
         <v>0.11466111723181133</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44">
         <f>'Plate 2'!N51</f>
         <v>0.10479465911389844</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44">
         <f>'Plate 3'!N51</f>
         <v>0</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G44">
         <f t="shared" si="0"/>
         <v>7.3151925448569924E-2</v>
       </c>
-      <c r="H44" s="8">
+      <c r="H44">
         <f t="shared" si="1"/>
         <v>6.3543212828538823E-2</v>
       </c>
@@ -17810,33 +17782,33 @@
         <v>2.9260770179427968</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A45" s="8">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" t="s">
         <v>29</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="8">
+      <c r="D45">
         <f>'Plate 1'!N52</f>
         <v>0.13465540457828376</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45">
         <f>'Plate 2'!N52</f>
         <v>0.16386809629779486</v>
       </c>
-      <c r="F45" s="8">
+      <c r="F45">
         <f>'Plate 3'!N52</f>
         <v>1.2068965517241379E-2</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G45">
         <f t="shared" si="0"/>
         <v>0.10353082213110666</v>
       </c>
-      <c r="H45" s="8">
+      <c r="H45">
         <f t="shared" si="1"/>
         <v>8.0543769161967066E-2</v>
       </c>
@@ -17853,7 +17825,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -17889,7 +17861,7 @@
       </c>
       <c r="L46" s="5"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -17924,7 +17896,7 @@
         <v>-0.84442182190288639</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -17959,7 +17931,7 @@
         <v>0.12520343838284051</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -17994,7 +17966,7 @@
         <v>1.2925998417142179</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -18029,7 +18001,7 @@
         <v>5.6050087737674605</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -18064,7 +18036,7 @@
         <v>33.564075479174107</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -18099,7 +18071,7 @@
         <v>62.843312263159845</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -18134,7 +18106,7 @@
         <v>75.109876467336235</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -18169,7 +18141,7 @@
         <v>111.18552435279925</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -18204,7 +18176,7 @@
         <v>177.75602335180594</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -18239,7 +18211,7 @@
         <v>314.71509966105145</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -18274,7 +18246,7 @@
         <v>210.70695973955654</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -18309,7 +18281,7 @@
         <v>184.55167991790577</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -18344,7 +18316,7 @@
         <v>100.38839417310137</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -18379,7 +18351,7 @@
         <v>31.321316191687778</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -18414,7 +18386,7 @@
         <v>27.374006736081448</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -18449,7 +18421,7 @@
         <v>9.7445956882686744</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -18484,7 +18456,7 @@
         <v>3.1139497378807506</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -18519,7 +18491,7 @@
         <v>4.2783170406135236</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -18554,7 +18526,7 @@
         <v>2.8055472938962107</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -18589,7 +18561,7 @@
         <v>1.7235601025445266</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -18632,33 +18604,33 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A68" s="8">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" t="s">
         <v>51</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" t="s">
         <v>59</v>
       </c>
-      <c r="D68" s="8">
+      <c r="D68">
         <f>'Plate 1'!N75</f>
         <v>1.3873587138368631E-2</v>
       </c>
-      <c r="E68" s="8">
+      <c r="E68">
         <f>'Plate 2'!N75</f>
         <v>-8.0517904106817723E-2</v>
       </c>
-      <c r="F68" s="8">
+      <c r="F68">
         <f>'Plate 3'!N75</f>
         <v>-0.1418103448275862</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G68">
         <f t="shared" si="3"/>
         <v>-6.9484887265345088E-2</v>
       </c>
-      <c r="H68" s="8">
+      <c r="H68">
         <f t="shared" si="4"/>
         <v>7.8426189908494079E-2</v>
       </c>
@@ -18668,33 +18640,33 @@
       </c>
       <c r="L68" s="5"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A69" s="8">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" t="s">
         <v>52</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" t="s">
         <v>60</v>
       </c>
-      <c r="D69" s="8">
+      <c r="D69">
         <f>'Plate 1'!N76</f>
         <v>0</v>
       </c>
-      <c r="E69" s="8">
+      <c r="E69">
         <f>'Plate 2'!N76</f>
         <v>-6.5142625935666595E-2</v>
       </c>
-      <c r="F69" s="8">
+      <c r="F69">
         <f>'Plate 3'!N76</f>
         <v>-0.10646551724137931</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G69">
         <f t="shared" si="3"/>
         <v>-5.7202714392348641E-2</v>
       </c>
-      <c r="H69" s="8">
+      <c r="H69">
         <f t="shared" si="4"/>
         <v>5.3675024330272957E-2</v>
       </c>
@@ -18703,33 +18675,33 @@
         <v>-2.2881085756939457</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A70" s="8">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" t="s">
         <v>53</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" t="s">
         <v>61</v>
       </c>
-      <c r="D70" s="8">
+      <c r="D70">
         <f>'Plate 1'!N77</f>
         <v>1.8770147304851676E-2</v>
       </c>
-      <c r="E70" s="8">
+      <c r="E70">
         <f>'Plate 2'!N77</f>
         <v>-5.5027311349382962E-2</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70">
         <f>'Plate 3'!N77</f>
         <v>-7.7586206896551727E-2</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G70">
         <f t="shared" si="3"/>
         <v>-3.7947790313694336E-2</v>
       </c>
-      <c r="H70" s="8">
+      <c r="H70">
         <f t="shared" si="4"/>
         <v>5.0397611826880996E-2</v>
       </c>
@@ -18738,33 +18710,33 @@
         <v>-1.5179116125477734</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A71" s="8">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A71">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" t="s">
         <v>54</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" t="s">
         <v>62</v>
       </c>
-      <c r="D71" s="8">
+      <c r="D71">
         <f>'Plate 1'!N78</f>
         <v>5.6718488595095283E-2</v>
       </c>
-      <c r="E71" s="8">
+      <c r="E71">
         <f>'Plate 2'!N78</f>
         <v>-2.9536718591948209E-2</v>
       </c>
-      <c r="F71" s="8">
+      <c r="F71">
         <f>'Plate 3'!N78</f>
         <v>-7.586206896551724E-2</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G71">
         <f t="shared" si="3"/>
         <v>-1.6226766320790054E-2</v>
       </c>
-      <c r="H71" s="8">
+      <c r="H71">
         <f t="shared" si="4"/>
         <v>6.7284969962586025E-2</v>
       </c>
@@ -18773,33 +18745,33 @@
         <v>-0.64907065283160215</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A72" s="8">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" t="s">
         <v>55</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" t="s">
         <v>63</v>
       </c>
-      <c r="D72" s="8">
+      <c r="D72">
         <f>'Plate 1'!N79</f>
         <v>0.17750030603501041</v>
       </c>
-      <c r="E72" s="8">
+      <c r="E72">
         <f>'Plate 2'!N79</f>
         <v>4.6530447096904716E-2</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72">
         <f>'Plate 3'!N79</f>
         <v>-1.7241379310344827E-3</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G72">
         <f t="shared" si="3"/>
         <v>7.4102205066960206E-2</v>
       </c>
-      <c r="H72" s="8">
+      <c r="H72">
         <f t="shared" si="4"/>
         <v>9.2738889937846361E-2</v>
       </c>
@@ -18808,33 +18780,33 @@
         <v>2.9640882026784081</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A73" s="8">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" t="s">
         <v>56</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" t="s">
         <v>64</v>
       </c>
-      <c r="D73" s="8">
+      <c r="D73">
         <f>'Plate 1'!N80</f>
         <v>0.5586159056596075</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E73">
         <f>'Plate 2'!N80</f>
         <v>0.4426461662957718</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F73">
         <f>'Plate 3'!N80</f>
         <v>0.41508620689655173</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G73">
         <f t="shared" si="3"/>
         <v>0.47211609295064366</v>
       </c>
-      <c r="H73" s="8">
+      <c r="H73">
         <f t="shared" si="4"/>
         <v>7.6167913451374372E-2</v>
       </c>
@@ -18843,33 +18815,33 @@
         <v>18.884643718025746</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A74" s="8">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" t="s">
         <v>64</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" t="s">
         <v>72</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74">
         <f>'Plate 1'!N81</f>
         <v>1.165381319622965</v>
       </c>
-      <c r="E74" s="8">
+      <c r="E74">
         <f>'Plate 2'!N81</f>
         <v>1.0184098725470363</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74">
         <f>'Plate 3'!N81</f>
         <v>1.0336206896551725</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G74">
         <f t="shared" ref="G74:G89" si="6">AVERAGE(D74:F74)</f>
         <v>1.0724706272750579</v>
       </c>
-      <c r="H74" s="8">
+      <c r="H74">
         <f t="shared" ref="H74:H89" si="7">STDEV(D74:F74)</f>
         <v>8.0821654299450388E-2</v>
       </c>
@@ -18878,33 +18850,33 @@
         <v>42.898825091002315</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A75" s="8">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A75">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" t="s">
         <v>63</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" t="s">
         <v>71</v>
       </c>
-      <c r="D75" s="8">
+      <c r="D75">
         <f>'Plate 1'!N82</f>
         <v>2.2871016444281227</v>
       </c>
-      <c r="E75" s="8">
+      <c r="E75">
         <f>'Plate 2'!N82</f>
         <v>2.0979162451952256</v>
       </c>
-      <c r="F75" s="8">
+      <c r="F75">
         <f>'Plate 3'!N82</f>
         <v>2.0956896551724138</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G75">
         <f t="shared" si="6"/>
         <v>2.1602358482652542</v>
       </c>
-      <c r="H75" s="8">
+      <c r="H75">
         <f t="shared" si="7"/>
         <v>0.10987464267432831</v>
       </c>
@@ -18913,33 +18885,33 @@
         <v>86.409433930610163</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A76" s="8">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" t="s">
         <v>70</v>
       </c>
-      <c r="D76" s="8">
+      <c r="D76">
         <f>'Plate 1'!N83</f>
         <v>3.4333047700656958</v>
       </c>
-      <c r="E76" s="8">
+      <c r="E76">
         <f>'Plate 2'!N83</f>
         <v>3.2555128464495247</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76">
         <f>'Plate 3'!N83</f>
         <v>3.261206896551724</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G76">
         <f t="shared" si="6"/>
         <v>3.3166748376889816</v>
       </c>
-      <c r="H76" s="8">
+      <c r="H76">
         <f t="shared" si="7"/>
         <v>0.10104460102493999</v>
       </c>
@@ -18948,33 +18920,33 @@
         <v>132.66699350755925</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A77" s="8">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A77">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" t="s">
         <v>61</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" t="s">
         <v>69</v>
       </c>
-      <c r="D77" s="8">
+      <c r="D77">
         <f>'Plate 1'!N84</f>
         <v>5.1491410617374633</v>
       </c>
-      <c r="E77" s="8">
+      <c r="E77">
         <f>'Plate 2'!N84</f>
         <v>4.9913008294557963</v>
       </c>
-      <c r="F77" s="8">
+      <c r="F77">
         <f>'Plate 3'!N84</f>
         <v>5.0517241379310347</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G77">
         <f t="shared" si="6"/>
         <v>5.0640553430414315</v>
       </c>
-      <c r="H77" s="8">
+      <c r="H77">
         <f t="shared" si="7"/>
         <v>7.9639366498539241E-2</v>
       </c>
@@ -18983,33 +18955,33 @@
         <v>202.56221372165726</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A78" s="8">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A78">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" t="s">
         <v>60</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" t="s">
         <v>68</v>
       </c>
-      <c r="D78" s="8">
+      <c r="D78">
         <f>'Plate 1'!N85</f>
         <v>7.3334149426694415</v>
       </c>
-      <c r="E78" s="8">
+      <c r="E78">
         <f>'Plate 2'!N85</f>
         <v>7.3489783532267854</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78">
         <f>'Plate 3'!N85</f>
         <v>7.2952586206896548</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G78">
         <f t="shared" si="6"/>
         <v>7.3258839721952933</v>
       </c>
-      <c r="H78" s="8">
+      <c r="H78">
         <f t="shared" si="7"/>
         <v>2.7640351900384223E-2</v>
       </c>
@@ -19018,33 +18990,33 @@
         <v>293.03535888781175</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A79" s="8">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A79">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="8" t="s">
+      <c r="C79" t="s">
         <v>67</v>
       </c>
-      <c r="D79" s="8">
+      <c r="D79">
         <f>'Plate 1'!N86</f>
         <v>7.7667605174031911</v>
       </c>
-      <c r="E79" s="8">
+      <c r="E79">
         <f>'Plate 2'!N86</f>
         <v>7.7143435160833498</v>
       </c>
-      <c r="F79" s="8">
+      <c r="F79">
         <f>'Plate 3'!N86</f>
         <v>7.8646551724137934</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G79">
         <f t="shared" si="6"/>
         <v>7.7819197353001117</v>
       </c>
-      <c r="H79" s="8">
+      <c r="H79">
         <f t="shared" si="7"/>
         <v>7.6293839349157677E-2</v>
       </c>
@@ -19053,33 +19025,33 @@
         <v>311.27678941200446</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A80" s="8">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" t="s">
         <v>58</v>
       </c>
-      <c r="C80" s="8" t="s">
+      <c r="C80" t="s">
         <v>66</v>
       </c>
-      <c r="D80" s="8">
+      <c r="D80">
         <f>'Plate 1'!N87</f>
         <v>5.4841473864610117</v>
       </c>
-      <c r="E80" s="8">
+      <c r="E80">
         <f>'Plate 2'!N87</f>
         <v>5.2142423629374877</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80">
         <f>'Plate 3'!N87</f>
         <v>5.3431034482758619</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G80">
         <f t="shared" si="6"/>
         <v>5.3471643992247877</v>
       </c>
-      <c r="H80" s="8">
+      <c r="H80">
         <f t="shared" si="7"/>
         <v>0.13499832933323916</v>
       </c>
@@ -19088,33 +19060,33 @@
         <v>213.88657596899151</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A81" s="8">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
+      <c r="B81" t="s">
         <v>57</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="C81" t="s">
         <v>65</v>
       </c>
-      <c r="D81" s="8">
+      <c r="D81">
         <f>'Plate 1'!N88</f>
         <v>2.2205900355000612</v>
       </c>
-      <c r="E81" s="8">
+      <c r="E81">
         <f>'Plate 2'!N88</f>
         <v>2.1658911592150516</v>
       </c>
-      <c r="F81" s="8">
+      <c r="F81">
         <f>'Plate 3'!N88</f>
         <v>2.1556034482758619</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G81">
         <f t="shared" si="6"/>
         <v>2.1806948809969917</v>
       </c>
-      <c r="H81" s="8">
+      <c r="H81">
         <f t="shared" si="7"/>
         <v>3.4931028666644326E-2</v>
       </c>
@@ -19123,33 +19095,33 @@
         <v>87.227795239879669</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A82" s="8">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82">
         <v>81</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" t="s">
         <v>65</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" t="s">
         <v>73</v>
       </c>
-      <c r="D82" s="8">
+      <c r="D82">
         <f>'Plate 1'!N89</f>
         <v>0.99889827396254138</v>
       </c>
-      <c r="E82" s="8">
+      <c r="E82">
         <f>'Plate 2'!N89</f>
         <v>0.89297997167711918</v>
       </c>
-      <c r="F82" s="8">
+      <c r="F82">
         <f>'Plate 3'!N89</f>
         <v>0.86120689655172411</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G82">
         <f t="shared" si="6"/>
         <v>0.91769504739712815</v>
       </c>
-      <c r="H82" s="8">
+      <c r="H82">
         <f t="shared" si="7"/>
         <v>7.2096151625495E-2</v>
       </c>
@@ -19158,33 +19130,33 @@
         <v>36.707801895885126</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A83" s="8">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B83" t="s">
         <v>66</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" t="s">
         <v>74</v>
       </c>
-      <c r="D83" s="8">
+      <c r="D83">
         <f>'Plate 1'!N90</f>
         <v>0.51291467743909902</v>
       </c>
-      <c r="E83" s="8">
+      <c r="E83">
         <f>'Plate 2'!N90</f>
         <v>0.47865668622294155</v>
       </c>
-      <c r="F83" s="8">
+      <c r="F83">
         <f>'Plate 3'!N90</f>
         <v>0.44051724137931036</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G83">
         <f t="shared" si="6"/>
         <v>0.477362868347117</v>
       </c>
-      <c r="H83" s="8">
+      <c r="H83">
         <f t="shared" si="7"/>
         <v>3.6216055286704664E-2</v>
       </c>
@@ -19193,33 +19165,33 @@
         <v>19.094514733884679</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A84" s="8">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="8" t="s">
+      <c r="B84" t="s">
         <v>67</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" t="s">
         <v>75</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84">
         <f>'Plate 1'!N91</f>
         <v>0.28236830293385567</v>
       </c>
-      <c r="E84" s="8">
+      <c r="E84">
         <f>'Plate 2'!N91</f>
         <v>0.21323083147885899</v>
       </c>
-      <c r="F84" s="8">
+      <c r="F84">
         <f>'Plate 3'!N91</f>
         <v>0.17844827586206896</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G84">
         <f t="shared" si="6"/>
         <v>0.22468247009159451</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84">
         <f t="shared" si="7"/>
         <v>5.289799643500457E-2</v>
       </c>
@@ -19228,33 +19200,33 @@
         <v>8.98729880366378</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A85" s="8">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
+      <c r="B85" t="s">
         <v>68</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="C85" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="8">
+      <c r="D85">
         <f>'Plate 1'!N92</f>
         <v>0.20565552699228792</v>
       </c>
-      <c r="E85" s="8">
+      <c r="E85">
         <f>'Plate 2'!N92</f>
         <v>0.11814687436779284</v>
       </c>
-      <c r="F85" s="8">
+      <c r="F85">
         <f>'Plate 3'!N92</f>
         <v>8.1896551724137928E-2</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G85">
         <f t="shared" si="6"/>
         <v>0.13523298436140621</v>
       </c>
-      <c r="H85" s="8">
+      <c r="H85">
         <f t="shared" si="7"/>
         <v>6.3624070569958266E-2</v>
       </c>
@@ -19263,33 +19235,33 @@
         <v>5.4093193744562482</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A86" s="8">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86">
         <v>85</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" t="s">
         <v>69</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="C86" t="s">
         <v>77</v>
       </c>
-      <c r="D86" s="8">
+      <c r="D86">
         <f>'Plate 1'!N93</f>
         <v>0.19463826661770109</v>
       </c>
-      <c r="E86" s="8">
+      <c r="E86">
         <f>'Plate 2'!N93</f>
         <v>9.3465506777260773E-2</v>
       </c>
-      <c r="F86" s="8">
+      <c r="F86">
         <f>'Plate 3'!N93</f>
         <v>5.0862068965517239E-2</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G86">
         <f t="shared" si="6"/>
         <v>0.1129886141201597</v>
       </c>
-      <c r="H86" s="8">
+      <c r="H86">
         <f t="shared" si="7"/>
         <v>7.384959406165835E-2</v>
       </c>
@@ -19298,33 +19270,33 @@
         <v>4.5195445648063881</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A87" s="8">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
+      <c r="B87" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" t="s">
         <v>78</v>
       </c>
-      <c r="D87" s="8">
+      <c r="D87">
         <f>'Plate 1'!N94</f>
         <v>0.22320153425551884</v>
       </c>
-      <c r="E87" s="8">
+      <c r="E87">
         <f>'Plate 2'!N94</f>
         <v>0.12381145053611167</v>
       </c>
-      <c r="F87" s="8">
+      <c r="F87">
         <f>'Plate 3'!N94</f>
         <v>7.9741379310344834E-2</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G87">
         <f t="shared" si="6"/>
         <v>0.14225145470065845</v>
       </c>
-      <c r="H87" s="8">
+      <c r="H87">
         <f t="shared" si="7"/>
         <v>7.3486252655954071E-2</v>
       </c>
@@ -19333,33 +19305,33 @@
         <v>5.6900581880263381</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A88" s="8">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" t="s">
         <v>71</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" t="s">
         <v>79</v>
       </c>
-      <c r="D88" s="8">
+      <c r="D88">
         <f>'Plate 1'!N95</f>
         <v>0.15179336516097441</v>
       </c>
-      <c r="E88" s="8">
+      <c r="E88">
         <f>'Plate 2'!N95</f>
         <v>5.2599635848674893E-2</v>
       </c>
-      <c r="F88" s="8">
+      <c r="F88">
         <f>'Plate 3'!N95</f>
         <v>8.6206896551724137E-4</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G88">
         <f t="shared" si="6"/>
         <v>6.8418356658388843E-2</v>
       </c>
-      <c r="H88" s="8">
+      <c r="H88">
         <f t="shared" si="7"/>
         <v>7.6699009047392283E-2</v>
       </c>
@@ -19368,33 +19340,33 @@
         <v>2.7367342663355538</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A89" s="8">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
+      <c r="B89" t="s">
         <v>72</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" t="s">
         <v>80</v>
       </c>
-      <c r="D89" s="8">
+      <c r="D89">
         <f>'Plate 1'!N96</f>
         <v>0.11180479046802955</v>
       </c>
-      <c r="E89" s="8">
+      <c r="E89">
         <f>'Plate 2'!N96</f>
         <v>6.4738013352215254E-3</v>
       </c>
-      <c r="F89" s="8">
+      <c r="F89">
         <f>'Plate 3'!N96</f>
         <v>-3.5775862068965519E-2</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G89">
         <f t="shared" si="6"/>
         <v>2.7500909911428516E-2</v>
       </c>
-      <c r="H89" s="8">
+      <c r="H89">
         <f t="shared" si="7"/>
         <v>7.6004057274056208E-2</v>
       </c>
